--- a/evaluation/RQ2/SOChecker.xlsx
+++ b/evaluation/RQ2/SOChecker.xlsx
@@ -3634,7 +3634,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -27139,7 +27139,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
@@ -27159,7 +27159,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
